--- a/team_specific_matrix/Bethune-Cookman_A.xlsx
+++ b/team_specific_matrix/Bethune-Cookman_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1936619718309859</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="C2">
-        <v>0.5704225352112676</v>
+        <v>0.5709876543209876</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02464788732394366</v>
+        <v>0.02160493827160494</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1338028169014084</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07746478873239436</v>
+        <v>0.07716049382716049</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0115606936416185</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C3">
-        <v>0.04046242774566474</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.005780346820809248</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7514450867052023</v>
+        <v>0.7551020408163265</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1907514450867052</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05405405405405406</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7297297297297297</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05649717514124294</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01129943502824859</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06779661016949153</v>
+        <v>0.06341463414634146</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2768361581920904</v>
+        <v>0.2731707317073171</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02824858757062147</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1864406779661017</v>
+        <v>0.1902439024390244</v>
       </c>
       <c r="R6">
-        <v>0.02824858757062147</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="S6">
-        <v>0.3446327683615819</v>
+        <v>0.3219512195121951</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1284403669724771</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009174311926605505</v>
+        <v>0.007874015748031496</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04587155963302753</v>
+        <v>0.04724409448818898</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1192660550458716</v>
+        <v>0.1338582677165354</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.009174311926605505</v>
+        <v>0.01574803149606299</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1743119266055046</v>
+        <v>0.1771653543307087</v>
       </c>
       <c r="R7">
-        <v>0.05963302752293578</v>
+        <v>0.06299212598425197</v>
       </c>
       <c r="S7">
-        <v>0.4541284403669725</v>
+        <v>0.4448818897637795</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09345794392523364</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03115264797507788</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="E8">
-        <v>0.003115264797507788</v>
+        <v>0.002717391304347826</v>
       </c>
       <c r="F8">
-        <v>0.07476635514018691</v>
+        <v>0.06793478260869565</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1090342679127726</v>
+        <v>0.1222826086956522</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03738317757009346</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1713395638629283</v>
+        <v>0.1684782608695652</v>
       </c>
       <c r="R8">
-        <v>0.07476635514018691</v>
+        <v>0.08423913043478261</v>
       </c>
       <c r="S8">
-        <v>0.4049844236760125</v>
+        <v>0.4076086956521739</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1447368421052632</v>
+        <v>0.1292134831460674</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006578947368421052</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05263157894736842</v>
+        <v>0.05056179775280899</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1118421052631579</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006578947368421052</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1710526315789474</v>
+        <v>0.1853932584269663</v>
       </c>
       <c r="R9">
-        <v>0.06578947368421052</v>
+        <v>0.07303370786516854</v>
       </c>
       <c r="S9">
-        <v>0.4407894736842105</v>
+        <v>0.4382022471910113</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1240234375</v>
+        <v>0.1205951448707909</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0234375</v>
+        <v>0.02192638997650744</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.046875</v>
+        <v>0.05011746280344558</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1083984375</v>
+        <v>0.1151135473766641</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0205078125</v>
+        <v>0.01957713390759593</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.220703125</v>
+        <v>0.2223962411902898</v>
       </c>
       <c r="R10">
-        <v>0.0654296875</v>
+        <v>0.06499608457321848</v>
       </c>
       <c r="S10">
-        <v>0.390625</v>
+        <v>0.3852779953014879</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1510574018126888</v>
+        <v>0.1532467532467532</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09969788519637462</v>
+        <v>0.1012987012987013</v>
       </c>
       <c r="K11">
-        <v>0.1842900302114804</v>
+        <v>0.1896103896103896</v>
       </c>
       <c r="L11">
-        <v>0.5558912386706949</v>
+        <v>0.548051948051948</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00906344410876133</v>
+        <v>0.007792207792207792</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7393617021276596</v>
+        <v>0.7534883720930232</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1861702127659574</v>
+        <v>0.1767441860465116</v>
       </c>
       <c r="K12">
-        <v>0.01063829787234043</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="L12">
-        <v>0.02659574468085106</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03723404255319149</v>
+        <v>0.03720930232558139</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.76</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02197802197802198</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1153846153846154</v>
+        <v>0.1181818181818182</v>
       </c>
       <c r="I15">
-        <v>0.07142857142857142</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="J15">
-        <v>0.3351648351648351</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="K15">
-        <v>0.04945054945054945</v>
+        <v>0.05</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02747252747252747</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1153846153846154</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2637362637362637</v>
+        <v>0.2454545454545455</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03723404255319149</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.148936170212766</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="I16">
-        <v>0.0851063829787234</v>
+        <v>0.07441860465116279</v>
       </c>
       <c r="J16">
-        <v>0.4095744680851064</v>
+        <v>0.4372093023255814</v>
       </c>
       <c r="K16">
-        <v>0.1436170212765958</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01595744680851064</v>
+        <v>0.01395348837209302</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03191489361702127</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1276595744680851</v>
+        <v>0.1255813953488372</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.04324324324324325</v>
+        <v>0.03736263736263736</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1810810810810811</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="I17">
-        <v>0.08918918918918919</v>
+        <v>0.07912087912087912</v>
       </c>
       <c r="J17">
-        <v>0.3648648648648649</v>
+        <v>0.3912087912087912</v>
       </c>
       <c r="K17">
-        <v>0.1297297297297297</v>
+        <v>0.1274725274725275</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02702702702702703</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="N17">
-        <v>0.002702702702702703</v>
+        <v>0.002197802197802198</v>
       </c>
       <c r="O17">
-        <v>0.04864864864864865</v>
+        <v>0.06153846153846154</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1135135135135135</v>
+        <v>0.1098901098901099</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02542372881355932</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1440677966101695</v>
+        <v>0.1258278145695364</v>
       </c>
       <c r="I18">
-        <v>0.06779661016949153</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="J18">
-        <v>0.4745762711864407</v>
+        <v>0.4900662251655629</v>
       </c>
       <c r="K18">
-        <v>0.1610169491525424</v>
+        <v>0.1589403973509934</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02542372881355932</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0423728813559322</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05932203389830509</v>
+        <v>0.05960264900662252</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02754820936639119</v>
+        <v>0.0242566510172144</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1744719926538108</v>
+        <v>0.1705790297339593</v>
       </c>
       <c r="I19">
-        <v>0.07621671258034894</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="J19">
-        <v>0.349862258953168</v>
+        <v>0.3646322378716745</v>
       </c>
       <c r="K19">
-        <v>0.1460055096418733</v>
+        <v>0.1416275430359937</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02938475665748393</v>
+        <v>0.02895148669796557</v>
       </c>
       <c r="N19">
-        <v>0.0009182736455463728</v>
+        <v>0.000782472613458529</v>
       </c>
       <c r="O19">
-        <v>0.05968778696051423</v>
+        <v>0.0594679186228482</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1359044995408632</v>
+        <v>0.1322378716744914</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bethune-Cookman_A.xlsx
+++ b/team_specific_matrix/Bethune-Cookman_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1944444444444444</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="C2">
-        <v>0.5709876543209876</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02160493827160494</v>
+        <v>0.01881720430107527</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1358024691358025</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07716049382716049</v>
+        <v>0.06989247311827956</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01020408163265306</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="C3">
-        <v>0.04081632653061224</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01020408163265306</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7551020408163265</v>
+        <v>0.7685589519650655</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1836734693877551</v>
+        <v>0.1746724890829694</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6818181818181818</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2272727272727273</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05853658536585366</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02439024390243903</v>
+        <v>0.02155172413793104</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06341463414634146</v>
+        <v>0.05603448275862069</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2731707317073171</v>
+        <v>0.2801724137931034</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02439024390243903</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1902439024390244</v>
+        <v>0.1767241379310345</v>
       </c>
       <c r="R6">
-        <v>0.04390243902439024</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="S6">
-        <v>0.3219512195121951</v>
+        <v>0.3405172413793103</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1102362204724409</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007874015748031496</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04724409448818898</v>
+        <v>0.04659498207885305</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1338582677165354</v>
+        <v>0.1362007168458781</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01574803149606299</v>
+        <v>0.01433691756272401</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1771653543307087</v>
+        <v>0.1792114695340502</v>
       </c>
       <c r="R7">
-        <v>0.06299212598425197</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="S7">
-        <v>0.4448818897637795</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08695652173913043</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02717391304347826</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="E8">
-        <v>0.002717391304347826</v>
+        <v>0.002392344497607655</v>
       </c>
       <c r="F8">
-        <v>0.06793478260869565</v>
+        <v>0.0645933014354067</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1222826086956522</v>
+        <v>0.1220095693779904</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03260869565217391</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1684782608695652</v>
+        <v>0.1746411483253588</v>
       </c>
       <c r="R8">
-        <v>0.08423913043478261</v>
+        <v>0.0861244019138756</v>
       </c>
       <c r="S8">
-        <v>0.4076086956521739</v>
+        <v>0.3971291866028708</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1292134831460674</v>
+        <v>0.1185567010309278</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005617977528089887</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05056179775280899</v>
+        <v>0.04639175257731959</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1123595505617977</v>
+        <v>0.1134020618556701</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005617977528089887</v>
+        <v>0.005154639175257732</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1853932584269663</v>
+        <v>0.1907216494845361</v>
       </c>
       <c r="R9">
-        <v>0.07303370786516854</v>
+        <v>0.07216494845360824</v>
       </c>
       <c r="S9">
-        <v>0.4382022471910113</v>
+        <v>0.4484536082474227</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1205951448707909</v>
+        <v>0.1277346506704305</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02192638997650744</v>
+        <v>0.0218772053634439</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05011746280344558</v>
+        <v>0.05363443895553988</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151135473766641</v>
+        <v>0.1171489061397318</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01957713390759593</v>
+        <v>0.01976005645730416</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2223962411902898</v>
+        <v>0.2180663373323924</v>
       </c>
       <c r="R10">
-        <v>0.06499608457321848</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="S10">
-        <v>0.3852779953014879</v>
+        <v>0.3775582215949189</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1532467532467532</v>
+        <v>0.1570438799076213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1012987012987013</v>
+        <v>0.09699769053117784</v>
       </c>
       <c r="K11">
-        <v>0.1896103896103896</v>
+        <v>0.1939953810623557</v>
       </c>
       <c r="L11">
-        <v>0.548051948051948</v>
+        <v>0.5450346420323325</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007792207792207792</v>
+        <v>0.006928406466512702</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7534883720930232</v>
+        <v>0.7302904564315352</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1767441860465116</v>
+        <v>0.1991701244813278</v>
       </c>
       <c r="K12">
-        <v>0.009302325581395349</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="L12">
-        <v>0.02325581395348837</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03720930232558139</v>
+        <v>0.03734439834024896</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7543859649122807</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03508771929824561</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02727272727272727</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1181818181818182</v>
+        <v>0.1260162601626016</v>
       </c>
       <c r="I15">
-        <v>0.07727272727272727</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="J15">
-        <v>0.3454545454545455</v>
+        <v>0.3455284552845528</v>
       </c>
       <c r="K15">
-        <v>0.05</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02727272727272727</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1090909090909091</v>
+        <v>0.1016260162601626</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2454545454545455</v>
+        <v>0.2560975609756098</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03255813953488372</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1395348837209302</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I16">
-        <v>0.07441860465116279</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="J16">
-        <v>0.4372093023255814</v>
+        <v>0.4246031746031746</v>
       </c>
       <c r="K16">
-        <v>0.1395348837209302</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01395348837209302</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03720930232558139</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1255813953488372</v>
+        <v>0.126984126984127</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03736263736263736</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1692307692307692</v>
+        <v>0.1693227091633466</v>
       </c>
       <c r="I17">
-        <v>0.07912087912087912</v>
+        <v>0.07370517928286853</v>
       </c>
       <c r="J17">
-        <v>0.3912087912087912</v>
+        <v>0.398406374501992</v>
       </c>
       <c r="K17">
-        <v>0.1274725274725275</v>
+        <v>0.1254980079681275</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02197802197802198</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="N17">
-        <v>0.002197802197802198</v>
+        <v>0.00199203187250996</v>
       </c>
       <c r="O17">
-        <v>0.06153846153846154</v>
+        <v>0.05776892430278884</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1098901098901099</v>
+        <v>0.1115537848605578</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01986754966887417</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1258278145695364</v>
+        <v>0.1325301204819277</v>
       </c>
       <c r="I18">
-        <v>0.0728476821192053</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="J18">
-        <v>0.4900662251655629</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="K18">
-        <v>0.1589403973509934</v>
+        <v>0.1566265060240964</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02649006622516556</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04635761589403974</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.05960264900662252</v>
+        <v>0.06024096385542169</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0242566510172144</v>
+        <v>0.02551381998582565</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1705790297339593</v>
+        <v>0.1750531537916371</v>
       </c>
       <c r="I19">
-        <v>0.07746478873239436</v>
+        <v>0.07795889440113395</v>
       </c>
       <c r="J19">
-        <v>0.3646322378716745</v>
+        <v>0.3586109142452162</v>
       </c>
       <c r="K19">
-        <v>0.1416275430359937</v>
+        <v>0.1438695960311835</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02895148669796557</v>
+        <v>0.02693125442948264</v>
       </c>
       <c r="N19">
-        <v>0.000782472613458529</v>
+        <v>0.0007087172218284905</v>
       </c>
       <c r="O19">
-        <v>0.0594679186228482</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1322378716744914</v>
+        <v>0.1311126860382707</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Bethune-Cookman_A.xlsx
+++ b/team_specific_matrix/Bethune-Cookman_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1935483870967742</v>
+        <v>0.1931216931216931</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.5846560846560847</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01881720430107527</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1344086021505376</v>
+        <v>0.1322751322751323</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06989247311827956</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008733624454148471</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="C3">
-        <v>0.03930131004366812</v>
+        <v>0.03862660944206009</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008733624454148471</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7685589519650655</v>
+        <v>0.7725321888412017</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1746724890829694</v>
+        <v>0.1716738197424893</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05603448275862069</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02155172413793104</v>
+        <v>0.02049180327868852</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05603448275862069</v>
+        <v>0.05327868852459016</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2801724137931034</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02586206896551724</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1767241379310345</v>
+        <v>0.1680327868852459</v>
       </c>
       <c r="R6">
-        <v>0.04310344827586207</v>
+        <v>0.04508196721311476</v>
       </c>
       <c r="S6">
-        <v>0.3405172413793103</v>
+        <v>0.3483606557377049</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1111111111111111</v>
+        <v>0.1141868512110727</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01075268817204301</v>
+        <v>0.01038062283737024</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04659498207885305</v>
+        <v>0.04498269896193772</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1362007168458781</v>
+        <v>0.1349480968858132</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01433691756272401</v>
+        <v>0.01384083044982699</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1792114695340502</v>
+        <v>0.1799307958477509</v>
       </c>
       <c r="R7">
-        <v>0.05734767025089606</v>
+        <v>0.05536332179930796</v>
       </c>
       <c r="S7">
-        <v>0.4444444444444444</v>
+        <v>0.4463667820069204</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09569377990430622</v>
+        <v>0.09744779582366589</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02392344497607655</v>
+        <v>0.02320185614849188</v>
       </c>
       <c r="E8">
-        <v>0.002392344497607655</v>
+        <v>0.002320185614849188</v>
       </c>
       <c r="F8">
-        <v>0.0645933014354067</v>
+        <v>0.06496519721577726</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1220095693779904</v>
+        <v>0.1206496519721578</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03349282296650718</v>
+        <v>0.03248259860788863</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1746411483253588</v>
+        <v>0.1740139211136891</v>
       </c>
       <c r="R8">
-        <v>0.0861244019138756</v>
+        <v>0.08352668213457076</v>
       </c>
       <c r="S8">
-        <v>0.3971291866028708</v>
+        <v>0.4013921113689095</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1185567010309278</v>
+        <v>0.115</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005154639175257732</v>
+        <v>0.005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04639175257731959</v>
+        <v>0.05</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1134020618556701</v>
+        <v>0.11</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005154639175257732</v>
+        <v>0.005</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1907216494845361</v>
+        <v>0.185</v>
       </c>
       <c r="R9">
-        <v>0.07216494845360824</v>
+        <v>0.08</v>
       </c>
       <c r="S9">
-        <v>0.4484536082474227</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1277346506704305</v>
+        <v>0.1249146757679181</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0218772053634439</v>
+        <v>0.02116040955631399</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05363443895553988</v>
+        <v>0.0552901023890785</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1171489061397318</v>
+        <v>0.1194539249146758</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01976005645730416</v>
+        <v>0.01979522184300341</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2180663373323924</v>
+        <v>0.2177474402730376</v>
       </c>
       <c r="R10">
-        <v>0.06422018348623854</v>
+        <v>0.06484641638225255</v>
       </c>
       <c r="S10">
-        <v>0.3775582215949189</v>
+        <v>0.3767918088737202</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1570438799076213</v>
+        <v>0.1574279379157428</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09699769053117784</v>
+        <v>0.09534368070953436</v>
       </c>
       <c r="K11">
-        <v>0.1939953810623557</v>
+        <v>0.1973392461197339</v>
       </c>
       <c r="L11">
-        <v>0.5450346420323325</v>
+        <v>0.541019955654102</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006928406466512702</v>
+        <v>0.008869179600886918</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7302904564315352</v>
+        <v>0.728</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1991701244813278</v>
+        <v>0.196</v>
       </c>
       <c r="K12">
-        <v>0.008298755186721992</v>
+        <v>0.008</v>
       </c>
       <c r="L12">
-        <v>0.02489626556016597</v>
+        <v>0.028</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03734439834024896</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7666666666666667</v>
+        <v>0.7704918032786885</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03333333333333333</v>
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02845528455284553</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1260162601626016</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="I15">
-        <v>0.07317073170731707</v>
+        <v>0.07364341085271318</v>
       </c>
       <c r="J15">
-        <v>0.3455284552845528</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K15">
-        <v>0.04471544715447155</v>
+        <v>0.04263565891472868</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.1016260162601626</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2560975609756098</v>
+        <v>0.2441860465116279</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03174603174603174</v>
+        <v>0.03125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1388888888888889</v>
+        <v>0.140625</v>
       </c>
       <c r="I16">
-        <v>0.07539682539682539</v>
+        <v>0.07421875</v>
       </c>
       <c r="J16">
-        <v>0.4246031746031746</v>
+        <v>0.421875</v>
       </c>
       <c r="K16">
-        <v>0.1468253968253968</v>
+        <v>0.15234375</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0119047619047619</v>
+        <v>0.01171875</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04365079365079365</v>
+        <v>0.04296875</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.126984126984127</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0398406374501992</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1693227091633466</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="I17">
-        <v>0.07370517928286853</v>
+        <v>0.07170542635658915</v>
       </c>
       <c r="J17">
-        <v>0.398406374501992</v>
+        <v>0.3992248062015504</v>
       </c>
       <c r="K17">
-        <v>0.1254980079681275</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02191235059760956</v>
+        <v>0.02131782945736434</v>
       </c>
       <c r="N17">
-        <v>0.00199203187250996</v>
+        <v>0.001937984496124031</v>
       </c>
       <c r="O17">
-        <v>0.05776892430278884</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1115537848605578</v>
+        <v>0.1104651162790698</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02409638554216868</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1325301204819277</v>
+        <v>0.1329479768786127</v>
       </c>
       <c r="I18">
-        <v>0.06626506024096386</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="J18">
-        <v>0.4819277108433735</v>
+        <v>0.4739884393063584</v>
       </c>
       <c r="K18">
-        <v>0.1566265060240964</v>
+        <v>0.1560693641618497</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03012048192771084</v>
+        <v>0.02890173410404624</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04819277108433735</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06024096385542169</v>
+        <v>0.06358381502890173</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02551381998582565</v>
+        <v>0.02534246575342466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1750531537916371</v>
+        <v>0.173972602739726</v>
       </c>
       <c r="I19">
-        <v>0.07795889440113395</v>
+        <v>0.07876712328767123</v>
       </c>
       <c r="J19">
-        <v>0.3586109142452162</v>
+        <v>0.3575342465753424</v>
       </c>
       <c r="K19">
-        <v>0.1438695960311835</v>
+        <v>0.1445205479452055</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02693125442948264</v>
+        <v>0.02671232876712329</v>
       </c>
       <c r="N19">
-        <v>0.0007087172218284905</v>
+        <v>0.0006849315068493151</v>
       </c>
       <c r="O19">
-        <v>0.06024096385542169</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1311126860382707</v>
+        <v>0.1308219178082192</v>
       </c>
     </row>
   </sheetData>
